--- a/Диаграмма Ганта.xlsx
+++ b/Диаграмма Ганта.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Задача</t>
   </si>
@@ -30,54 +30,100 @@
     <t>Длительность</t>
   </si>
   <si>
-    <t>Ознакомиться с задачей и 
-придумать назначение бота</t>
-  </si>
-  <si>
-    <t>Просмотреть похожих ботов</t>
-  </si>
-  <si>
-    <t>Планировка задач в Trello</t>
-  </si>
-  <si>
-    <t>Планировка задач в Real Time Board</t>
-  </si>
-  <si>
-    <t>Создать Backend и Frontend
- в Real Time Board</t>
-  </si>
-  <si>
-    <t>Написать первую часть ТЗ</t>
-  </si>
-  <si>
-    <t>Написать вторую часть ТЗ</t>
-  </si>
-  <si>
-    <t>Установить Python и нужные
- библиотеки</t>
-  </si>
-  <si>
-    <t>Построить диаграммы(Классов, последовательности,
-коммуникации, активности, развёртывания, состояния)</t>
-  </si>
-  <si>
-    <t>Написать анализ предметной области
-с UseCase диаграммой</t>
-  </si>
-  <si>
-    <t>Построить диаграммы(Прецентов, Объектов)</t>
-  </si>
-  <si>
-    <t>Начать строить тело бота с его функциями</t>
-  </si>
-  <si>
-    <t>Построить диаграмму Гфнта</t>
+    <t>Сформулировала цели и задачи проекта</t>
+  </si>
+  <si>
+    <t>Сформулировала цели и задачи системы</t>
+  </si>
+  <si>
+    <t>Спрогнозировала ожидаемый эффект</t>
+  </si>
+  <si>
+    <t>Прописала ожидаемый результат работ</t>
+  </si>
+  <si>
+    <t>Составила требования к средствам реализации</t>
+  </si>
+  <si>
+    <t>Выбрала модель жизненного цикла проекта</t>
+  </si>
+  <si>
+    <t>Составила требования к системе в целом</t>
+  </si>
+  <si>
+    <t>Смоделировала Use Сase диаграмму</t>
+  </si>
+  <si>
+    <t>Скорректировала функциональные требования</t>
+  </si>
+  <si>
+    <t>Описала тестирование системы в ТЗ</t>
+  </si>
+  <si>
+    <t>Оформила требования к документации</t>
+  </si>
+  <si>
+    <t>Расписала задачи в Trello</t>
+  </si>
+  <si>
+    <t>Спланировала список задач в Real Time Board</t>
+  </si>
+  <si>
+    <t>Проанализировала предметную область</t>
+  </si>
+  <si>
+    <t>Создала Backend и Frontend в Real Time Board</t>
+  </si>
+  <si>
+    <t>Построила диаграммы (Последовательности, Коммуникации, Активности, Развёртывания, Состояний)</t>
+  </si>
+  <si>
+    <t>Построила диаграммы (Прецедентов, Классов, Объектов)</t>
+  </si>
+  <si>
+    <t>Построила диаграмму Ганта</t>
+  </si>
+  <si>
+    <t>Продумала структуру БД</t>
+  </si>
+  <si>
+    <t>Спроектировала БД</t>
+  </si>
+  <si>
+    <t>Подключила модуль Telebot</t>
+  </si>
+  <si>
+    <t>Подключила модуль Requests</t>
+  </si>
+  <si>
+    <t>Подключила модуль CherryPy</t>
+  </si>
+  <si>
+    <t>Реализовала функцию "Вопросы по шаблонам"</t>
+  </si>
+  <si>
+    <t>Реализовала функцию "Задай свой вопрос"</t>
+  </si>
+  <si>
+    <t>Реализовала функцию "Рассылка уведомлений"</t>
+  </si>
+  <si>
+    <t>Записала демо-видео</t>
+  </si>
+  <si>
+    <t>Создала презентацию</t>
+  </si>
+  <si>
+    <t>17..03.2019</t>
+  </si>
+  <si>
+    <t>31.04.2019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -107,11 +153,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -123,12 +178,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -174,48 +232,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Ознакомиться с задачей и 
-придумать назначение бота</c:v>
+                  <c:v>Сформулировала цели и задачи проекта</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Просмотреть похожих ботов</c:v>
+                  <c:v>Сформулировала цели и задачи системы</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Написать первую часть ТЗ</c:v>
+                  <c:v>Спрогнозировала ожидаемый эффект</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Написать вторую часть ТЗ</c:v>
+                  <c:v>Прописала ожидаемый результат работ</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Планировка задач в Trello</c:v>
+                  <c:v>Составила требования к средствам реализации</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Планировка задач в Real Time Board</c:v>
+                  <c:v>Выбрала модель жизненного цикла проекта</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Создать Backend и Frontend
- в Real Time Board</c:v>
+                  <c:v>Составила требования к системе в целом</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Установить Python и нужные
- библиотеки</c:v>
+                  <c:v>Смоделировала Use Сase диаграмму</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Написать анализ предметной области
-с UseCase диаграммой</c:v>
+                  <c:v>Скорректировала функциональные требования</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Построить диаграммы(Классов, последовательности,
-коммуникации, активности, развёртывания, состояния)</c:v>
+                  <c:v>Описала тестирование системы в ТЗ</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Построить диаграммы(Прецентов, Объектов)</c:v>
+                  <c:v>Оформила требования к документации</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Начать строить тело бота с его функциями</c:v>
+                  <c:v>Расписала задачи в Trello</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Построить диаграмму Гфнта</c:v>
+                  <c:v>Спланировала список задач в Real Time Board</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -230,44 +283,49 @@
                   <c:v>43537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43541</c:v>
+                  <c:v>43539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43544</c:v>
+                  <c:v>43542</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43549</c:v>
+                  <c:v>43543</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43546</c:v>
+                  <c:v>43550</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43551</c:v>
+                  <c:v>43552</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43556</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43559</c:v>
+                  <c:v>43558</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43569</c:v>
+                  <c:v>43566</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43575</c:v>
+                  <c:v>43567</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43579</c:v>
+                  <c:v>43567</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C4CD-43D0-A38B-B43259015B51}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -288,6 +346,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -301,6 +364,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -314,6 +382,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -327,6 +400,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -340,6 +418,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -353,6 +436,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -366,6 +454,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -379,6 +472,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -392,6 +490,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -405,6 +508,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -418,6 +526,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -431,6 +544,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="12"/>
@@ -444,6 +562,11 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001A-C4CD-43D0-A38B-B43259015B51}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -451,48 +574,43 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>Ознакомиться с задачей и 
-придумать назначение бота</c:v>
+                  <c:v>Сформулировала цели и задачи проекта</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Просмотреть похожих ботов</c:v>
+                  <c:v>Сформулировала цели и задачи системы</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Написать первую часть ТЗ</c:v>
+                  <c:v>Спрогнозировала ожидаемый эффект</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Написать вторую часть ТЗ</c:v>
+                  <c:v>Прописала ожидаемый результат работ</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Планировка задач в Trello</c:v>
+                  <c:v>Составила требования к средствам реализации</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Планировка задач в Real Time Board</c:v>
+                  <c:v>Выбрала модель жизненного цикла проекта</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Создать Backend и Frontend
- в Real Time Board</c:v>
+                  <c:v>Составила требования к системе в целом</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Установить Python и нужные
- библиотеки</c:v>
+                  <c:v>Смоделировала Use Сase диаграмму</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Написать анализ предметной области
-с UseCase диаграммой</c:v>
+                  <c:v>Скорректировала функциональные требования</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Построить диаграммы(Классов, последовательности,
-коммуникации, активности, развёртывания, состояния)</c:v>
+                  <c:v>Описала тестирование системы в ТЗ</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Построить диаграммы(Прецентов, Объектов)</c:v>
+                  <c:v>Оформила требования к документации</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Начать строить тело бота с его функциями</c:v>
+                  <c:v>Расписала задачи в Trello</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Построить диаграмму Гфнта</c:v>
+                  <c:v>Спланировала список задач в Real Time Board</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -504,47 +622,52 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001B-C4CD-43D0-A38B-B43259015B51}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -566,6 +689,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -617,16 +741,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>33619</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>56028</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>582707</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>313763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>537884</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>44822</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>414619</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>112057</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1209,7 +1333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1244,7 +1368,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,21 +1577,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1489,11 +1613,10 @@
         <v>43537</v>
       </c>
       <c r="C2" s="1">
-        <v>43540</v>
+        <v>43538</v>
       </c>
       <c r="D2">
-        <f>C2-B2</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1501,92 +1624,87 @@
         <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>43541</v>
+        <v>43539</v>
       </c>
       <c r="C3" s="1">
-        <v>43543</v>
+        <v>43540</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D10" si="0">C3-B3</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>43544</v>
+        <v>43542</v>
       </c>
       <c r="C4" s="1">
-        <v>43548</v>
+        <v>43543</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>43549</v>
+        <v>43543</v>
       </c>
       <c r="C5" s="1">
-        <v>43552</v>
+        <v>43180</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>43546</v>
       </c>
       <c r="C6" s="1">
-        <v>43550</v>
+        <v>43546</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>43546</v>
+        <v>43550</v>
       </c>
       <c r="C7" s="1">
-        <v>43550</v>
+        <v>43551</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
-        <v>43551</v>
+        <v>43552</v>
       </c>
       <c r="C8" s="1">
-        <v>43553</v>
+        <v>43552</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1594,71 +1712,66 @@
         <v>43556</v>
       </c>
       <c r="C9" s="1">
-        <v>43557</v>
+        <v>43556</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43558</v>
+      </c>
+      <c r="C10" s="1">
+        <v>43559</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>43559</v>
-      </c>
-      <c r="C10" s="1">
-        <v>43565</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>43563</v>
       </c>
       <c r="C11" s="1">
-        <v>43570</v>
+        <v>43564</v>
       </c>
       <c r="D11">
-        <f>C11-B11</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>43569</v>
+        <v>43566</v>
       </c>
       <c r="C12" s="1">
-        <v>43573</v>
+        <v>43566</v>
       </c>
       <c r="D12">
-        <f>C12-B12</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="1">
-        <v>43575</v>
+        <v>43567</v>
       </c>
       <c r="C13" s="1">
-        <v>43578</v>
+        <v>43568</v>
       </c>
       <c r="D13">
-        <f>C13-B13</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1666,14 +1779,223 @@
         <v>16</v>
       </c>
       <c r="B14" s="1">
-        <v>43579</v>
+        <v>43567</v>
       </c>
       <c r="C14" s="1">
+        <v>43568</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43568</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C16" s="1">
+        <v>43568</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43569</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43575</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43576</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43571</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43571</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43572</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43573</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43541</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43573</v>
+      </c>
+      <c r="C22" s="1">
+        <v>43575</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43573</v>
+      </c>
+      <c r="C23" s="1">
+        <v>43575</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43574</v>
+      </c>
+      <c r="C24" s="1">
+        <v>43576</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43576</v>
+      </c>
+      <c r="C25" s="1">
         <v>43580</v>
       </c>
-      <c r="D14">
-        <f>C14-B14</f>
-        <v>1</v>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>23</v>
+      </c>
+      <c r="C26" s="1">
+        <v>43582</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43581</v>
+      </c>
+      <c r="C27" s="1">
+        <v>43585</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43617</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43619</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Диаграмма Ганта.xlsx
+++ b/Диаграмма Ганта.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Задача</t>
   </si>
@@ -114,10 +114,46 @@
     <t>Создала презентацию</t>
   </si>
   <si>
-    <t>17..03.2019</t>
-  </si>
-  <si>
     <t>31.04.2019</t>
+  </si>
+  <si>
+    <t>Завела баги для функции "Задай свои вопросы"</t>
+  </si>
+  <si>
+    <t>Составила Decision Table для функции "Рассылка уведомлений"</t>
+  </si>
+  <si>
+    <t>Провела Smoke Testing</t>
+  </si>
+  <si>
+    <t>Составила Decision Table для функции "Вопросы по шаблонам"</t>
+  </si>
+  <si>
+    <t>Исправила баги для функции "Задай свои вопросы"</t>
+  </si>
+  <si>
+    <t>Провела State Transition Testing</t>
+  </si>
+  <si>
+    <t>Провела Confirmation Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Закрыла баги </t>
+  </si>
+  <si>
+    <t>Составила Check List и провела по нему тестирование функции "Задай свой вопрос"</t>
+  </si>
+  <si>
+    <t>Завела баги для функции "Рассылка уведомлений"</t>
+  </si>
+  <si>
+    <t>Исправила баги для функции "Рассылка уведомлений"</t>
+  </si>
+  <si>
+    <t>Нашла аналоги (telegram боты)</t>
+  </si>
+  <si>
+    <t>Выявила недостатки ботов с похожим функционалом</t>
   </si>
 </sst>
 </file>
@@ -163,10 +199,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,7 +785,7 @@
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>414619</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>112057</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1577,10 +1613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1630,7 +1666,7 @@
         <v>43540</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D10" si="0">C3-B3</f>
+        <f t="shared" ref="D3" si="0">C3-B3</f>
         <v>1</v>
       </c>
     </row>
@@ -1804,83 +1840,83 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1">
-        <v>43568</v>
+        <v>43567</v>
       </c>
       <c r="C16" s="1">
-        <v>43568</v>
+        <v>43202</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C17" s="1">
+        <v>43568</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43568</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="1">
         <v>43569</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="1">
         <v>43575</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="1">
         <v>43570</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="1">
         <v>43576</v>
       </c>
-      <c r="D18">
+      <c r="D20">
         <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="1">
-        <v>43571</v>
-      </c>
-      <c r="C19" s="1">
-        <v>43571</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="1">
-        <v>43572</v>
-      </c>
-      <c r="C20" s="1">
-        <v>43573</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1">
-        <v>43541</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>32</v>
+        <v>43571</v>
+      </c>
+      <c r="C21" s="1">
+        <v>43571</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1888,41 +1924,41 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1">
+        <v>43572</v>
+      </c>
+      <c r="C22" s="1">
         <v>43573</v>
       </c>
-      <c r="C22" s="1">
-        <v>43575</v>
-      </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>43573</v>
-      </c>
-      <c r="C23" s="1">
-        <v>43575</v>
+        <v>43541</v>
+      </c>
+      <c r="C23" s="5">
+        <v>43541</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
-        <v>43574</v>
+        <v>43573</v>
       </c>
       <c r="C24" s="1">
-        <v>43576</v>
+        <v>43575</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -1930,41 +1966,41 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>43576</v>
+        <v>43573</v>
       </c>
       <c r="C25" s="1">
-        <v>43580</v>
+        <v>43575</v>
       </c>
       <c r="D25">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="1">
-        <v>23</v>
+        <v>43574</v>
       </c>
       <c r="C26" s="1">
-        <v>43582</v>
+        <v>43576</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="1">
-        <v>43581</v>
+        <v>43576</v>
       </c>
       <c r="C27" s="1">
-        <v>43585</v>
+        <v>43580</v>
       </c>
       <c r="D27">
         <v>5</v>
@@ -1972,31 +2008,209 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>43585</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43582</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43581</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43585</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43587</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43594</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43595</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43599</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43571</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43602</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43602</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43603</v>
+      </c>
+      <c r="C34" s="1">
+        <v>43604</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43605</v>
+      </c>
+      <c r="C35" s="1">
+        <v>43605</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43606</v>
+      </c>
+      <c r="C36" s="1">
+        <v>43606</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43607</v>
+      </c>
+      <c r="C38" s="1">
+        <v>43608</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43609</v>
+      </c>
+      <c r="C39" s="1">
+        <v>43611</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43612</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43613</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B42" s="1">
         <v>43617</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C42" s="1">
         <v>43619</v>
       </c>
-      <c r="D29">
+      <c r="D42">
         <v>3</v>
       </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Диаграмма Ганта.xlsx
+++ b/Диаграмма Ганта.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Задача</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>Создала презентацию</t>
-  </si>
-  <si>
-    <t>31.04.2019</t>
   </si>
   <si>
     <t>Завела баги для функции "Задай свои вопросы"</t>
@@ -159,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,11 +195,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="5"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -222,7 +219,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -357,7 +354,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C4CD-43D0-A38B-B43259015B51}"/>
             </c:ext>
@@ -382,7 +379,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000002-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -400,7 +397,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000004-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -418,7 +415,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000006-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -436,7 +433,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000008-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -454,7 +451,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000A-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -472,7 +469,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000C-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -490,7 +487,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000E-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -508,7 +505,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000010-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -526,7 +523,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000012-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -544,7 +541,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000014-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -562,7 +559,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000016-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -580,7 +577,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000018-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -598,7 +595,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </c:spPr>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000001A-C4CD-43D0-A38B-B43259015B51}"/>
               </c:ext>
@@ -699,7 +696,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000001B-C4CD-43D0-A38B-B43259015B51}"/>
             </c:ext>
@@ -715,11 +712,11 @@
         </c:dLbls>
         <c:gapWidth val="64"/>
         <c:overlap val="67"/>
-        <c:axId val="82130432"/>
-        <c:axId val="81069760"/>
+        <c:axId val="70502400"/>
+        <c:axId val="83818688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82130432"/>
+        <c:axId val="70502400"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -729,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81069760"/>
+        <c:crossAx val="83818688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -737,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81069760"/>
+        <c:axId val="83818688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43537"/>
@@ -749,7 +746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82130432"/>
+        <c:crossAx val="70502400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -773,20 +770,1080 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата начала</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>Сформулировала цели и задачи проекта</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Сформулировала цели и задачи системы</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Спрогнозировала ожидаемый эффект</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Прописала ожидаемый результат работ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Составила требования к средствам реализации</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Выбрала модель жизненного цикла проекта</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Составила требования к системе в целом</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Смоделировала Use Сase диаграмму</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Скорректировала функциональные требования</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Описала тестирование системы в ТЗ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Оформила требования к документации</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Расписала задачи в Trello</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Спланировала список задач в Real Time Board</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Проанализировала предметную область</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Нашла аналоги (telegram боты)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Выявила недостатки ботов с похожим функционалом</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Создала Backend и Frontend в Real Time Board</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Построила диаграммы (Последовательности, Коммуникации, Активности, Развёртывания, Состояний)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Построила диаграммы (Прецедентов, Классов, Объектов)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Построила диаграмму Ганта</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Продумала структуру БД</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Спроектировала БД</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Подключила модуль Telebot</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Подключила модуль Requests</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Подключила модуль CherryPy</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Реализовала функцию "Вопросы по шаблонам"</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Реализовала функцию "Задай свой вопрос"</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Реализовала функцию "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Провела Smoke Testing</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Составила Decision Table для функции "Вопросы по шаблонам"</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Составила Check List и провела по нему тестирование функции "Задай свой вопрос"</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Завела баги для функции "Задай свои вопросы"</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Исправила баги для функции "Задай свои вопросы"</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Составила Decision Table для функции "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Завела баги для функции "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Исправила баги для функции "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Провела State Transition Testing</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Провела Confirmation Testing</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Закрыла баги </c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Записала демо-видео</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Создала презентацию</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>43537</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43539</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43542</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43543</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43546</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43550</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43552</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43556</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43563</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43566</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43567</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43569</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43570</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43571</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43572</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43573</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43574</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43576</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43581</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43586</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43594</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43599</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43602</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43605</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43606</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43607</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43609</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43612</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43615</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Дата окончания</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:glow rad="127000">
+                <a:schemeClr val="bg1"/>
+              </a:glow>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront"/>
+              <a:lightRig rig="threePt" dir="t"/>
+            </a:scene3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="12"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="16"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="19"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="20"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="23"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="24"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="26"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="29"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="30"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="31"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="33"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="34"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="37"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="38"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="40"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:glow rad="127000">
+                  <a:schemeClr val="bg1"/>
+                </a:glow>
+              </a:effectLst>
+              <a:scene3d>
+                <a:camera prst="orthographicFront"/>
+                <a:lightRig rig="threePt" dir="t"/>
+              </a:scene3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>Сформулировала цели и задачи проекта</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Сформулировала цели и задачи системы</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Спрогнозировала ожидаемый эффект</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Прописала ожидаемый результат работ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Составила требования к средствам реализации</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Выбрала модель жизненного цикла проекта</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Составила требования к системе в целом</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Смоделировала Use Сase диаграмму</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Скорректировала функциональные требования</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Описала тестирование системы в ТЗ</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Оформила требования к документации</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Расписала задачи в Trello</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Спланировала список задач в Real Time Board</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Проанализировала предметную область</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Нашла аналоги (telegram боты)</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Выявила недостатки ботов с похожим функционалом</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Создала Backend и Frontend в Real Time Board</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Построила диаграммы (Последовательности, Коммуникации, Активности, Развёртывания, Состояний)</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Построила диаграммы (Прецедентов, Классов, Объектов)</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Построила диаграмму Ганта</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Продумала структуру БД</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Спроектировала БД</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Подключила модуль Telebot</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Подключила модуль Requests</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Подключила модуль CherryPy</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Реализовала функцию "Вопросы по шаблонам"</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Реализовала функцию "Задай свой вопрос"</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Реализовала функцию "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Провела Smoke Testing</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Составила Decision Table для функции "Вопросы по шаблонам"</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Составила Check List и провела по нему тестирование функции "Задай свой вопрос"</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Завела баги для функции "Задай свои вопросы"</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Исправила баги для функции "Задай свои вопросы"</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Составила Decision Table для функции "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Завела баги для функции "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Исправила баги для функции "Рассылка уведомлений"</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Провела State Transition Testing</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Провела Confirmation Testing</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Закрыла баги </c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Записала демо-видео</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Создала презентацию</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="46"/>
+        <c:overlap val="100"/>
+        <c:axId val="5608448"/>
+        <c:axId val="148177472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="5608448"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148177472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148177472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="43537"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="5608448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="15"/>
+        <c:minorUnit val="5"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>582707</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>313763</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>167072</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>16757</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>414619</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>112057</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>605120</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>129376</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -800,6 +1857,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="33" name="Диаграмма 32"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1369,7 +2456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1404,7 +2491,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1615,13 +2702,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="72" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
@@ -1840,7 +2927,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16" s="1">
         <v>43567</v>
@@ -1854,7 +2941,7 @@
     </row>
     <row r="17" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17" s="1">
         <v>43567</v>
@@ -1880,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>19</v>
       </c>
@@ -1894,7 +2981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
@@ -1941,10 +3028,10 @@
         <v>23</v>
       </c>
       <c r="B23" s="1">
-        <v>43541</v>
-      </c>
-      <c r="C23" s="5">
-        <v>43541</v>
+        <v>43572</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43572</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -2011,7 +3098,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1">
-        <v>23</v>
+        <v>43578</v>
       </c>
       <c r="C28" s="1">
         <v>43582</v>
@@ -2036,7 +3123,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1">
         <v>43586</v>
@@ -2050,7 +3137,7 @@
     </row>
     <row r="31" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="1">
         <v>43594</v>
@@ -2064,7 +3151,7 @@
     </row>
     <row r="32" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32" s="1">
         <v>43599</v>
@@ -2078,7 +3165,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>43602</v>
@@ -2092,7 +3179,7 @@
     </row>
     <row r="34" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
         <v>43603</v>
@@ -2106,7 +3193,7 @@
     </row>
     <row r="35" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>43605</v>
@@ -2120,7 +3207,7 @@
     </row>
     <row r="36" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
         <v>43606</v>
@@ -2134,14 +3221,21 @@
     </row>
     <row r="37" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
+        <v>42</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43606</v>
+      </c>
+      <c r="C37" s="1">
+        <v>43607</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
         <v>43607</v>
@@ -2155,7 +3249,7 @@
     </row>
     <row r="39" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>43609</v>
@@ -2169,7 +3263,7 @@
     </row>
     <row r="40" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
         <v>43612</v>
@@ -2186,10 +3280,10 @@
         <v>30</v>
       </c>
       <c r="B41" s="1">
-        <v>43585</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>32</v>
+        <v>43615</v>
+      </c>
+      <c r="C41" s="5">
+        <v>43616</v>
       </c>
       <c r="D41">
         <v>2</v>
